--- a/staging_output.xlsx
+++ b/staging_output.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Menu Category" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Linked Category" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option Groups" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option Group" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Options" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,32 +438,77 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CategoryID</t>
+          <t>Category</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Option Groups</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cold drinks</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cold drinks</t>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cold options, can drinks range, hot options</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hot drinks</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hot drinks</t>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>hot options</t>
         </is>
       </c>
     </row>
@@ -478,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,37 +534,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CategoryID</t>
+          <t>Option Group</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GroupID</t>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mandatory</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cold options</t>
+        </is>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>can drinks range</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
         <v>1</v>
       </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hot options</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,42 +609,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>GroupID</t>
+          <t>Option Group</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GroupName</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cold options</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>can drinks range</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>hot options</t>
+          <t>Option</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
         </is>
       </c>
     </row>
